--- a/files/test - Copy.xlsx
+++ b/files/test - Copy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>nom</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>labani</t>
+  </si>
+  <si>
+    <t>ffffa</t>
+  </si>
+  <si>
+    <t>fffaaa</t>
+  </si>
+  <si>
+    <t>faaaaaa</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -611,6 +620,17 @@
         <v>25</v>
       </c>
       <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/files/test - Copy.xlsx
+++ b/files/test - Copy.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bibo\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="29">
   <si>
     <t>nom</t>
   </si>
@@ -107,14 +111,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -142,13 +141,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,19 +445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +464,62 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -471,8 +529,62 @@
       <c r="C2">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -482,8 +594,62 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -493,8 +659,62 @@
       <c r="C4">
         <v>222</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>222</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>222</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>222</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -504,16 +724,106 @@
       <c r="C5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -523,8 +833,62 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -534,8 +898,62 @@
       <c r="C8">
         <v>21213</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>21213</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>21213</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>21213</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>21213</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>21213</v>
+      </c>
+      <c r="S8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8">
+        <v>21213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -545,8 +963,62 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -556,8 +1028,62 @@
       <c r="C10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -567,8 +1093,62 @@
       <c r="C11">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>221</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>221</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>221</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>221</v>
+      </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11">
+        <v>221</v>
+      </c>
+      <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -578,8 +1158,62 @@
       <c r="C12">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>232</v>
+      </c>
+      <c r="I12">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>232</v>
+      </c>
+      <c r="L12">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>232</v>
+      </c>
+      <c r="O12">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>232</v>
+      </c>
+      <c r="R12">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>232</v>
+      </c>
+      <c r="U12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -589,8 +1223,62 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -600,8 +1288,62 @@
       <c r="C14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14">
+        <v>24</v>
+      </c>
+      <c r="S14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -611,17 +1353,106 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -631,19 +1462,62 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>